--- a/src/test/resources/Files/SampleExcel.xlsx
+++ b/src/test/resources/Files/SampleExcel.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">EmailID</t>
   </si>
@@ -29,36 +29,6 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">WIKVFONQEA@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wbKW98&amp;^</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILFGVLHMPO@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tcHW59+^</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMFPIRINRW@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tcHK31$^</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTERZTBZJP@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppLN94^&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSVPYFBIHL@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vpZF36@#</t>
-  </si>
-  <si>
     <t xml:space="preserve">JPQWGYBZOB@gmail.com</t>
   </si>
   <si>
@@ -113,94 +83,94 @@
     <t xml:space="preserve">dxVB58@&amp;</t>
   </si>
   <si>
-    <t>CIUXYOCNUC@gmail.com</t>
-  </si>
-  <si>
-    <t>paGW52+^</t>
-  </si>
-  <si>
-    <t>AKKMNNEDJJ@gmail.com</t>
-  </si>
-  <si>
-    <t>czEC42%%</t>
-  </si>
-  <si>
-    <t>JZNDAWDJJN@gmail.com</t>
-  </si>
-  <si>
-    <t>tjCI47=#</t>
-  </si>
-  <si>
-    <t>OOUZUHXTPA@gmail.com</t>
-  </si>
-  <si>
-    <t>qwCB82##</t>
-  </si>
-  <si>
-    <t>SAPQFCQUVZ@gmail.com</t>
-  </si>
-  <si>
-    <t>pwHX49%%</t>
-  </si>
-  <si>
-    <t>AJFFBUNWVR@gmail.com</t>
-  </si>
-  <si>
-    <t>glBV31#=</t>
-  </si>
-  <si>
-    <t>INUHJNHUTG@gmail.com</t>
-  </si>
-  <si>
-    <t>gzYR30=+</t>
-  </si>
-  <si>
-    <t>ELEQFWSUVS@gmail.com</t>
-  </si>
-  <si>
-    <t>yqWK56^@</t>
-  </si>
-  <si>
-    <t>BOUOKPSFVU@gmail.com</t>
-  </si>
-  <si>
-    <t>mbPU97%@</t>
-  </si>
-  <si>
-    <t>KYIUKHQNZZ@gmail.com</t>
-  </si>
-  <si>
-    <t>svQO85&amp;$</t>
-  </si>
-  <si>
-    <t>XUTIXQQAYJ@gmail.com</t>
-  </si>
-  <si>
-    <t>abVX67@$</t>
-  </si>
-  <si>
-    <t>YZNKTQKTRX@gmail.com</t>
-  </si>
-  <si>
-    <t>ckUL56+@</t>
-  </si>
-  <si>
-    <t>WSLHUCNMIZ@gmail.com</t>
-  </si>
-  <si>
-    <t>ujPG35&amp;#</t>
-  </si>
-  <si>
-    <t>AQWRSOCILW@gmail.com</t>
-  </si>
-  <si>
-    <t>gjLE47+=</t>
-  </si>
-  <si>
-    <t>RSVAPMDPAZ@gmail.com</t>
-  </si>
-  <si>
-    <t>zoOH86^+</t>
+    <t xml:space="preserve">CIUXYOCNUC@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paGW52+^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKKMNNEDJJ@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">czEC42%%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JZNDAWDJJN@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tjCI47=#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOUZUHXTPA@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qwCB82##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAPQFCQUVZ@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pwHX49%%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJFFBUNWVR@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glBV31#=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INUHJNHUTG@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gzYR30=+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELEQFWSUVS@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yqWK56^@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOUOKPSFVU@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mbPU97%@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KYIUKHQNZZ@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svQO85&amp;$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XUTIXQQAYJ@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abVX67@$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YZNKTQKTRX@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ckUL56+@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WSLHUCNMIZ@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ujPG35&amp;#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQWRSOCILW@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gjLE47+=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSVAPMDPAZ@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zoOH86^+</t>
   </si>
 </sst>
 </file>
@@ -325,16 +295,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" hidden="false" style="0" width="24.39453125" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" hidden="false" style="0" width="11.65625" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,126 +427,91 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/test/resources/Files/SampleExcel.xlsx
+++ b/src/test/resources/Files/SampleExcel.xlsx
@@ -186,7 +186,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -278,8 +277,10 @@
       <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -295,16 +296,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="3" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -507,11 +509,6 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
